--- a/data/trans_dic/P28A_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P28A_3_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido más tabaco respecto al último mes</t>
+          <t>Población que ha consumido más tabaco respecto al último mes (tasa de respuesta: 99,96%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,17 +657,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>29,75%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -676,42 +677,42 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>45,28%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,32%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,28%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>35,89%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>1,87%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,52; 47,84</t>
+          <t>3,5; 26,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,16; 27,62</t>
+          <t>0,0; 18,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 21,57</t>
+          <t>0,0; 12,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,11; 65,42</t>
+          <t>4,4; 20,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,54; 50,63</t>
+          <t>3,39; 19,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,61; 32,42</t>
+          <t>3,09; 18,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,42; 22,95</t>
+          <t>0,0; 11,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,44; 49,18</t>
+          <t>5,77; 18,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,02; 28,42</t>
+          <t>3,83; 15,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,39; 21,28</t>
+          <t>2,1; 11,89</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 9,23</t>
+          <t>0,0; 5,96</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>32,09%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>31,87%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>3,95%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,13; 43,59</t>
+          <t>5,95; 15,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,12; 33,98</t>
+          <t>4,24; 13,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,17; 23,09</t>
+          <t>2,16; 10,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,07; 14,92</t>
+          <t>1,43; 8,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,61; 41,16</t>
+          <t>5,82; 14,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,55; 27,33</t>
+          <t>2,41; 8,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,12; 23,21</t>
+          <t>3,05; 10,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,91; 21,75</t>
+          <t>1,83; 7,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,37; 39,75</t>
+          <t>6,58; 13,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,05; 28,57</t>
+          <t>4,35; 10,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,72; 20,55</t>
+          <t>3,58; 8,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,3; 15,98</t>
+          <t>2,19; 6,86</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>24,42%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>34,54%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>30,6%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>1,08%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,97; 39,98</t>
+          <t>2,79; 10,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 27,74</t>
+          <t>0,0; 5,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 18,32</t>
+          <t>0,0; 5,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 18,07</t>
+          <t>0,0; 3,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,42; 48,43</t>
+          <t>4,61; 14,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,76; 36,44</t>
+          <t>3,33; 10,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,9; 21,63</t>
+          <t>1,4; 7,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,62; 19,94</t>
+          <t>0,47; 3,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,95; 41,84</t>
+          <t>4,63; 11,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,01; 27,71</t>
+          <t>2,23; 7,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,36; 17,26</t>
+          <t>1,32; 5,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,38; 16,45</t>
+          <t>0,28; 2,79</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>32,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>19,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1145,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,82; 38,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,65; 25,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,81; 17,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,07; 10,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,3; 41,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,89; 27,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,82; 20,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,84; 16,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,23; 37,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,56; 24,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,49; 17,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,5; 12,46</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8,77%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,53%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,44%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,28%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9,08%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6,12%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,42%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,86%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8,94%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5,85%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4,48%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5,85; 12,23</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,2; 8,37</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,76; 6,23</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,88; 4,83</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6,47; 12,44</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4,06; 9,02</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3,49; 8,03</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,46; 4,86</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7,07; 11,38</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4,22; 7,78</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3,14; 6,18</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1,54; 4,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
@@ -1216,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido más tabaco respecto al último mes (tasa de respuesta: 99,96%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12395</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7745</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2679</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>12031</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14923</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4434</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>24426</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>22668</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>12640</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4434</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3619; 27275</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 23398</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13078</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5184; 23992</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4834; 27938</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3567; 21335</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13831</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12769; 41859</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10391; 40984</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4634; 26272</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14088</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>37138</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>35784</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>19223</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>16257</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>37025</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>22388</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>22688</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>14352</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>74163</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>58171</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>41910</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>30609</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>21776; 57855</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>18219; 59619</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8118; 39396</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5718; 33880</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>22748; 56132</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>11198; 40986</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>11600; 38272</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6875; 29785</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>49822; 103735</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>38847; 91585</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>27091; 65525</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>16933; 53163</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>16732</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5743</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4351</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1733</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>29763</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>25949</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>12943</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4785</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>46494</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>31692</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>17294</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>6518</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7970; 30737</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17829</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15054</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9825</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>16574; 51682</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>14165; 45778</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4831; 26921</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1537; 12913</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>29890; 72001</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>16946; 53189</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8276; 33282</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1686; 16809</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>66265</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>49272</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>26253</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>17990</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>78819</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>63260</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>45592</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>23571</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>145084</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>112531</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>71845</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>41561</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>44205; 92350</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>28499; 74581</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>13454; 47639</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6956; 38075</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>56148; 107945</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>41955; 93178</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>29364; 67499</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>12023; 40065</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>114847; 184739</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>81114; 149692</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>50396; 99160</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>24933; 66248</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>